--- a/Markets.xlsx
+++ b/Markets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanandrade/Desktop/Local Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee900c96612873f0/Desktop/New folder/Markets-In-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32317AEA-5E54-DE4D-9846-BC206EC15BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{32317AEA-5E54-DE4D-9846-BC206EC15BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F21692-D604-48FB-B360-D4579824C407}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{48C2119A-1759-F640-8C2F-39D13FF66906}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{48C2119A-1759-F640-8C2F-39D13FF66906}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Equities</t>
+  </si>
+  <si>
+    <t>Fixed Income</t>
+  </si>
+  <si>
+    <t>Commodities &amp; Currencies</t>
+  </si>
+  <si>
+    <t>S&amp;P Sector Returns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economic Forecasts </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +402,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB10DAB0-37E2-884C-B47D-A2498357DC66}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="7.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>